--- a/output/staterankings_topartycmtes_all.xlsx
+++ b/output/staterankings_topartycmtes_all.xlsx
@@ -396,13 +396,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>8896673.17</v>
+        <v>4336880.15</v>
       </c>
       <c r="C2">
         <v>19618453</v>
       </c>
       <c r="D2">
-        <v>453.4849496033148</v>
+        <v>221.0612707332225</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -414,45 +414,45 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="B3">
-        <v>11782877</v>
+        <v>3663289.79</v>
       </c>
       <c r="C3">
-        <v>39148760</v>
+        <v>20598139</v>
       </c>
       <c r="D3">
-        <v>300.977016896576</v>
+        <v>177.8456679994246</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="B4">
-        <v>3663289.79</v>
+        <v>6256537</v>
       </c>
       <c r="C4">
-        <v>20598139</v>
+        <v>39148760</v>
       </c>
       <c r="D4">
-        <v>177.8456679994246</v>
+        <v>159.8144360127882</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>1315270</v>
+        <v>1314770</v>
       </c>
       <c r="C5">
         <v>8881845</v>
       </c>
       <c r="D5">
-        <v>148.0852232841262</v>
+        <v>148.0289286741662</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="B9">
-        <v>479875</v>
+        <v>479750</v>
       </c>
       <c r="C9">
         <v>9957488</v>
       </c>
       <c r="D9">
-        <v>48.19237542641277</v>
+        <v>48.17982205953952</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -568,243 +568,243 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>WA</t>
         </is>
       </c>
       <c r="B10">
-        <v>581350</v>
+        <v>281800</v>
       </c>
       <c r="C10">
-        <v>12791181</v>
+        <v>7294336</v>
       </c>
       <c r="D10">
-        <v>45.4492825955633</v>
+        <v>38.63271447874077</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>WI</t>
         </is>
       </c>
       <c r="B11">
-        <v>281800</v>
+        <v>193691</v>
       </c>
       <c r="C11">
-        <v>7294336</v>
+        <v>5778394</v>
       </c>
       <c r="D11">
-        <v>38.63271447874077</v>
+        <v>33.51986728492381</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RI</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="B12">
-        <v>38675</v>
+        <v>402050</v>
       </c>
       <c r="C12">
-        <v>1056611</v>
+        <v>12791181</v>
       </c>
       <c r="D12">
-        <v>36.60287466248222</v>
+        <v>31.43181227753716</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="B13">
-        <v>193691</v>
+        <v>310700</v>
       </c>
       <c r="C13">
-        <v>5778394</v>
+        <v>12821497</v>
       </c>
       <c r="D13">
-        <v>33.51986728492381</v>
+        <v>24.23273974950039</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B14">
-        <v>310700</v>
+        <v>17025</v>
       </c>
       <c r="C14">
-        <v>12821497</v>
+        <v>949495</v>
       </c>
       <c r="D14">
-        <v>24.23273974950039</v>
+        <v>17.9305841526285</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="B15">
-        <v>19870</v>
+        <v>181505</v>
       </c>
       <c r="C15">
-        <v>949495</v>
+        <v>11641879</v>
       </c>
       <c r="D15">
-        <v>20.92691378048331</v>
+        <v>15.59069631285465</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="B16">
-        <v>109600</v>
+        <v>16025</v>
       </c>
       <c r="C16">
-        <v>6830193</v>
+        <v>1056611</v>
       </c>
       <c r="D16">
-        <v>16.04639868888039</v>
+        <v>15.16641412970336</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="B17">
-        <v>181505</v>
+        <v>82100</v>
       </c>
       <c r="C17">
-        <v>11641879</v>
+        <v>6830193</v>
       </c>
       <c r="D17">
-        <v>15.59069631285465</v>
+        <v>12.02015814194416</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>HI</t>
         </is>
       </c>
       <c r="B18">
-        <v>52450</v>
+        <v>17000</v>
       </c>
       <c r="C18">
-        <v>3581504</v>
+        <v>1422029</v>
       </c>
       <c r="D18">
-        <v>14.64468558460356</v>
+        <v>11.95474916474981</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HI</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="B19">
-        <v>17000</v>
+        <v>80800</v>
       </c>
       <c r="C19">
-        <v>1422029</v>
+        <v>6946685</v>
       </c>
       <c r="D19">
-        <v>11.95474916474981</v>
+        <v>11.63144722986576</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="B20">
-        <v>80800</v>
+        <v>36150</v>
       </c>
       <c r="C20">
-        <v>6946685</v>
+        <v>3581504</v>
       </c>
       <c r="D20">
-        <v>11.63144722986576</v>
+        <v>10.09352495487929</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -964,265 +964,265 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>ME</t>
         </is>
       </c>
       <c r="B28">
-        <v>3600</v>
+        <v>5900</v>
       </c>
       <c r="C28">
-        <v>738516</v>
+        <v>1332813</v>
       </c>
       <c r="D28">
-        <v>4.874640495263475</v>
+        <v>4.426727530418747</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ME</t>
+          <t>NH</t>
         </is>
       </c>
       <c r="B29">
-        <v>5900</v>
+        <v>5225</v>
       </c>
       <c r="C29">
-        <v>1332813</v>
+        <v>1343622</v>
       </c>
       <c r="D29">
-        <v>4.426727530418747</v>
+        <v>3.888742518357097</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>NH</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="B30">
-        <v>5225</v>
+        <v>8250</v>
       </c>
       <c r="C30">
-        <v>1343622</v>
+        <v>3045350</v>
       </c>
       <c r="D30">
-        <v>3.888742518357097</v>
+        <v>2.709048221058335</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>KS</t>
         </is>
       </c>
       <c r="B31">
-        <v>17100</v>
+        <v>7500</v>
       </c>
       <c r="C31">
-        <v>6090062</v>
+        <v>2908776</v>
       </c>
       <c r="D31">
-        <v>2.807853187701538</v>
+        <v>2.57840411224515</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UT</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="B32">
-        <v>8250</v>
+        <v>15050</v>
       </c>
       <c r="C32">
-        <v>3045350</v>
+        <v>6090062</v>
       </c>
       <c r="D32">
-        <v>2.709048221058335</v>
+        <v>2.471239209058956</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>KS</t>
+          <t>OR</t>
         </is>
       </c>
       <c r="B33">
-        <v>7500</v>
+        <v>8700</v>
       </c>
       <c r="C33">
-        <v>2908776</v>
+        <v>4081943</v>
       </c>
       <c r="D33">
-        <v>2.57840411224515</v>
+        <v>2.13133794371945</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="B34">
-        <v>9700</v>
+        <v>5000</v>
       </c>
       <c r="C34">
-        <v>4081943</v>
+        <v>2990671</v>
       </c>
       <c r="D34">
-        <v>2.376319316560766</v>
+        <v>1.671865611429676</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="B35">
-        <v>5000</v>
+        <v>44920</v>
       </c>
       <c r="C35">
-        <v>2990671</v>
+        <v>27885195</v>
       </c>
       <c r="D35">
-        <v>1.671865611429676</v>
+        <v>1.610890653624621</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="B36">
-        <v>44920</v>
+        <v>4000</v>
       </c>
       <c r="C36">
-        <v>27885195</v>
+        <v>4864680</v>
       </c>
       <c r="D36">
-        <v>1.610890653624621</v>
+        <v>0.8222534678540007</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="B37">
-        <v>4000</v>
+        <v>2100</v>
       </c>
       <c r="C37">
-        <v>4864680</v>
+        <v>3132499</v>
       </c>
       <c r="D37">
-        <v>0.8222534678540007</v>
+        <v>0.6703912754640944</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="B38">
-        <v>2100</v>
+        <v>2750</v>
       </c>
       <c r="C38">
-        <v>3132499</v>
+        <v>5531141</v>
       </c>
       <c r="D38">
-        <v>0.6703912754640944</v>
+        <v>0.4971849388760837</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>AK</t>
         </is>
       </c>
       <c r="B39">
-        <v>2750</v>
+        <v>250</v>
       </c>
       <c r="C39">
-        <v>5531141</v>
+        <v>738516</v>
       </c>
       <c r="D39">
-        <v>0.4971849388760837</v>
+        <v>0.3385167010599635</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40">

--- a/output/staterankings_topartycmtes_all.xlsx
+++ b/output/staterankings_topartycmtes_all.xlsx
@@ -446,7 +446,7 @@
         <v>39148760</v>
       </c>
       <c r="D4">
-        <v>159.8144360127882</v>
+        <v>159.8144360127881</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -622,7 +622,7 @@
         <v>12791181</v>
       </c>
       <c r="D12">
-        <v>31.43181227753716</v>
+        <v>31.43181227753715</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -754,7 +754,7 @@
         <v>1422029</v>
       </c>
       <c r="D18">
-        <v>11.95474916474981</v>
+        <v>11.9547491647498</v>
       </c>
       <c r="E18">
         <v>17</v>

--- a/output/staterankings_topartycmtes_all.xlsx
+++ b/output/staterankings_topartycmtes_all.xlsx
@@ -446,7 +446,7 @@
         <v>39148760</v>
       </c>
       <c r="D4">
-        <v>159.8144360127881</v>
+        <v>159.8144360127882</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -622,7 +622,7 @@
         <v>12791181</v>
       </c>
       <c r="D12">
-        <v>31.43181227753715</v>
+        <v>31.43181227753716</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -754,7 +754,7 @@
         <v>1422029</v>
       </c>
       <c r="D18">
-        <v>11.9547491647498</v>
+        <v>11.95474916474981</v>
       </c>
       <c r="E18">
         <v>17</v>
